--- a/resource/SPEC/02 SPEC Validate Inspection Plan V2.0.xlsx
+++ b/resource/SPEC/02 SPEC Validate Inspection Plan V2.0.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\narmnarmz-tools\resource\SPEC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10185" yWindow="-15" windowWidth="10080" windowHeight="8100" activeTab="5"/>
+    <workbookView xWindow="10185" yWindow="-15" windowWidth="10080" windowHeight="8100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01 - Header" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'03 - MIC'!$A$1:$J$50</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1310,7 +1315,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1352,7 +1357,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1376,6 +1381,13 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="222"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1468,7 +1480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1615,6 +1627,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1625,6 +1638,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1673,7 +1689,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1708,7 +1724,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1920,10 +1936,10 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
@@ -1934,7 +1950,7 @@
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
@@ -1963,7 +1979,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -1986,7 +2002,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -2009,7 +2025,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>278</v>
@@ -2032,7 +2048,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>206</v>
@@ -2055,7 +2071,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>140</v>
@@ -2078,7 +2094,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>204</v>
@@ -2101,7 +2117,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>279</v>
@@ -2124,7 +2140,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>280</v>
@@ -2147,7 +2163,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>281</v>
@@ -2172,7 +2188,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>2</v>
@@ -2193,7 +2209,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>282</v>
@@ -2214,7 +2230,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>283</v>
@@ -2233,7 +2249,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>284</v>
@@ -2252,7 +2268,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="B16" s="26" t="s">
         <v>164</v>
       </c>
@@ -2260,7 +2276,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3">
       <c r="B18" s="26" t="s">
         <v>166</v>
       </c>
@@ -2268,7 +2284,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3">
       <c r="B19" s="26" t="s">
         <v>167</v>
       </c>
@@ -2286,11 +2302,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -2301,7 +2317,7 @@
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>171</v>
       </c>
@@ -2330,11 +2346,11 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="60" t="s">
         <v>136</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2353,11 +2369,11 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="60" t="s">
         <v>137</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -2376,7 +2392,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>219</v>
@@ -2403,7 +2419,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>140</v>
@@ -2426,11 +2442,11 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="60" t="s">
         <v>145</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2448,7 +2464,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>220</v>
@@ -2471,7 +2487,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>221</v>
@@ -2494,9 +2510,9 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="60" t="s">
         <v>222</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -2515,7 +2531,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>223</v>
@@ -2538,7 +2554,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>37</v>
@@ -2563,10 +2579,10 @@
         <v>298</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="B13" s="26" t="s">
         <v>164</v>
       </c>
@@ -2575,10 +2591,10 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="B15" s="26" t="s">
         <v>166</v>
       </c>
@@ -2586,7 +2602,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="B16" s="26" t="s">
         <v>167</v>
       </c>
@@ -2596,6 +2612,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2603,11 +2620,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="38"/>
     <col min="2" max="2" width="10.7109375" style="38" customWidth="1"/>
@@ -2627,7 +2644,7 @@
     <col min="16" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="25.5">
       <c r="A1" s="2" t="s">
         <v>171</v>
       </c>
@@ -2674,7 +2691,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="36" t="s">
         <v>28</v>
       </c>
@@ -2703,7 +2720,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="53"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
@@ -2732,7 +2749,7 @@
       <c r="N3" s="36"/>
       <c r="O3" s="53"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="36" t="s">
         <v>28</v>
       </c>
@@ -2761,7 +2778,7 @@
       <c r="N4" s="36"/>
       <c r="O4" s="53"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="36" t="s">
         <v>28</v>
       </c>
@@ -2790,7 +2807,7 @@
       <c r="N5" s="36"/>
       <c r="O5" s="53"/>
     </row>
-    <row r="6" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="25.5">
       <c r="A6" s="36"/>
       <c r="B6" s="36" t="s">
         <v>176</v>
@@ -2823,7 +2840,7 @@
       <c r="N6" s="36"/>
       <c r="O6" s="53"/>
     </row>
-    <row r="7" spans="1:15" s="42" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="42" customFormat="1" ht="25.5">
       <c r="A7" s="40"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -2852,7 +2869,7 @@
       <c r="N7" s="40"/>
       <c r="O7" s="40"/>
     </row>
-    <row r="8" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="42" customFormat="1">
       <c r="A8" s="40"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -2881,7 +2898,7 @@
       <c r="N8" s="40"/>
       <c r="O8" s="40"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="53"/>
@@ -2908,7 +2925,7 @@
       <c r="N9" s="36"/>
       <c r="O9" s="53"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="53"/>
@@ -2935,7 +2952,7 @@
       <c r="N10" s="36"/>
       <c r="O10" s="53"/>
     </row>
-    <row r="11" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="25.5">
       <c r="A11" s="36"/>
       <c r="B11" s="36" t="s">
         <v>177</v>
@@ -2968,7 +2985,7 @@
       <c r="N11" s="36"/>
       <c r="O11" s="53"/>
     </row>
-    <row r="12" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="25.5">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
         <v>176</v>
@@ -3001,7 +3018,7 @@
       <c r="N12" s="36"/>
       <c r="O12" s="53"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" s="36"/>
       <c r="B13" s="36" t="s">
         <v>238</v>
@@ -3034,7 +3051,7 @@
       <c r="N13" s="36"/>
       <c r="O13" s="53"/>
     </row>
-    <row r="14" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="25.5">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="53"/>
@@ -3061,7 +3078,7 @@
       <c r="N14" s="36"/>
       <c r="O14" s="53"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="53"/>
@@ -3088,7 +3105,7 @@
       <c r="N15" s="36"/>
       <c r="O15" s="53"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="53"/>
@@ -3115,7 +3132,7 @@
       <c r="N16" s="36"/>
       <c r="O16" s="53"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="53"/>
@@ -3142,7 +3159,7 @@
       <c r="N17" s="36"/>
       <c r="O17" s="53"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" s="36"/>
       <c r="B18" s="36" t="s">
         <v>176</v>
@@ -3177,7 +3194,7 @@
       <c r="N18" s="36"/>
       <c r="O18" s="53"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" s="36"/>
       <c r="B19" s="36" t="s">
         <v>176</v>
@@ -3212,7 +3229,7 @@
       <c r="N19" s="36"/>
       <c r="O19" s="53"/>
     </row>
-    <row r="20" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="25.5">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="53"/>
@@ -3241,7 +3258,7 @@
       <c r="N20" s="36"/>
       <c r="O20" s="53"/>
     </row>
-    <row r="21" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="51" customHeight="1">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="53"/>
@@ -3271,7 +3288,7 @@
       <c r="N21" s="36"/>
       <c r="O21" s="53"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="53"/>
@@ -3299,7 +3316,7 @@
       <c r="N22" s="36"/>
       <c r="O22" s="53"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="53"/>
@@ -3328,7 +3345,7 @@
       <c r="N23" s="36"/>
       <c r="O23" s="53"/>
     </row>
-    <row r="24" spans="1:15" s="43" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" s="43" customFormat="1" ht="27" customHeight="1">
       <c r="A24" s="37"/>
       <c r="B24" s="37" t="s">
         <v>176</v>
@@ -3360,7 +3377,7 @@
       <c r="N24" s="37"/>
       <c r="O24" s="54"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" s="36"/>
       <c r="B25" s="36" t="s">
         <v>176</v>
@@ -3395,7 +3412,7 @@
       <c r="N25" s="36"/>
       <c r="O25" s="53"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" s="36"/>
       <c r="B26" s="36" t="s">
         <v>176</v>
@@ -3430,7 +3447,7 @@
       <c r="N26" s="36"/>
       <c r="O26" s="53"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" s="36"/>
       <c r="B27" s="36" t="s">
         <v>176</v>
@@ -3465,7 +3482,7 @@
       <c r="N27" s="36"/>
       <c r="O27" s="53"/>
     </row>
-    <row r="28" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="38.25">
       <c r="A28" s="36"/>
       <c r="B28" s="36" t="s">
         <v>176</v>
@@ -3496,7 +3513,7 @@
       <c r="N28" s="36"/>
       <c r="O28" s="53"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" s="36"/>
       <c r="B29" s="36" t="s">
         <v>176</v>
@@ -3537,7 +3554,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" s="36"/>
       <c r="B30" s="36" t="s">
         <v>176</v>
@@ -3578,7 +3595,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" s="36"/>
       <c r="B31" s="36" t="s">
         <v>176</v>
@@ -3619,7 +3636,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="25.5">
       <c r="A32" s="36"/>
       <c r="B32" s="36" t="s">
         <v>177</v>
@@ -3652,7 +3669,7 @@
       <c r="N32" s="36"/>
       <c r="O32" s="53"/>
     </row>
-    <row r="33" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="25.5">
       <c r="A33" s="36"/>
       <c r="B33" s="36" t="s">
         <v>177</v>
@@ -3685,7 +3702,7 @@
       <c r="N33" s="36"/>
       <c r="O33" s="53"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="53"/>
@@ -3712,7 +3729,7 @@
       <c r="N34" s="36"/>
       <c r="O34" s="53"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="53"/>
@@ -3739,7 +3756,7 @@
       <c r="N35" s="36"/>
       <c r="O35" s="53"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="53"/>
@@ -3766,7 +3783,7 @@
       <c r="N36" s="36"/>
       <c r="O36" s="53"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="53"/>
@@ -3793,7 +3810,7 @@
       <c r="N37" s="36"/>
       <c r="O37" s="53"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="53"/>
@@ -3820,7 +3837,7 @@
       <c r="N38" s="36"/>
       <c r="O38" s="53"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="53"/>
@@ -3845,7 +3862,7 @@
       <c r="N39" s="36"/>
       <c r="O39" s="53"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="53"/>
@@ -3870,7 +3887,7 @@
       <c r="N40" s="36"/>
       <c r="O40" s="53"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="53"/>
@@ -3895,7 +3912,7 @@
       <c r="N41" s="36"/>
       <c r="O41" s="53"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="53"/>
@@ -3926,7 +3943,7 @@
       <c r="N42" s="36"/>
       <c r="O42" s="53"/>
     </row>
-    <row r="43" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="25.5">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="53"/>
@@ -3953,7 +3970,7 @@
       <c r="N43" s="36"/>
       <c r="O43" s="53"/>
     </row>
-    <row r="44" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="25.5">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="53"/>
@@ -3980,7 +3997,7 @@
       <c r="N44" s="36"/>
       <c r="O44" s="53"/>
     </row>
-    <row r="45" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="25.5">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="53"/>
@@ -4007,7 +4024,7 @@
       <c r="N45" s="36"/>
       <c r="O45" s="53"/>
     </row>
-    <row r="46" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="25.5">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="53"/>
@@ -4034,7 +4051,7 @@
       <c r="N46" s="36"/>
       <c r="O46" s="53"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="53"/>
@@ -4061,7 +4078,7 @@
       <c r="N47" s="36"/>
       <c r="O47" s="53"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15">
       <c r="A48" s="36"/>
       <c r="B48" s="36" t="s">
         <v>176</v>
@@ -4096,7 +4113,7 @@
       <c r="N48" s="36"/>
       <c r="O48" s="53"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15">
       <c r="A49" s="36"/>
       <c r="B49" s="36" t="s">
         <v>176</v>
@@ -4129,7 +4146,7 @@
       <c r="N49" s="36"/>
       <c r="O49" s="53"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15">
       <c r="A50" s="36"/>
       <c r="B50" s="36" t="s">
         <v>176</v>
@@ -4162,7 +4179,7 @@
       <c r="N50" s="36"/>
       <c r="O50" s="53"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15">
       <c r="C52" s="45" t="s">
         <v>181</v>
       </c>
@@ -4173,7 +4190,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15">
       <c r="C53" s="45" t="s">
         <v>182</v>
       </c>
@@ -4181,7 +4198,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15">
       <c r="C54" s="45" t="s">
         <v>191</v>
       </c>
@@ -4189,11 +4206,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15">
       <c r="C55" s="43"/>
       <c r="D55" s="38"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15">
       <c r="C56" s="45" t="s">
         <v>166</v>
       </c>
@@ -4201,7 +4218,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15">
       <c r="C57" s="45" t="s">
         <v>167</v>
       </c>
@@ -4224,7 +4241,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="21.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
@@ -4234,7 +4251,7 @@
     <col min="8" max="8" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="15" t="s">
         <v>171</v>
       </c>
@@ -4260,7 +4277,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -4282,7 +4299,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -4304,7 +4321,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>138</v>
@@ -4326,7 +4343,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>140</v>
@@ -4348,7 +4365,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>139</v>
@@ -4368,7 +4385,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="14" t="s">
         <v>264</v>
@@ -4388,14 +4405,14 @@
       <c r="G7" s="8"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="B9" s="26" t="s">
         <v>164</v>
       </c>
@@ -4408,14 +4425,14 @@
       <c r="G9" s="20"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="21"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="B11" s="26" t="s">
         <v>166</v>
       </c>
@@ -4428,7 +4445,7 @@
       <c r="G11" s="20"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="B12" s="26" t="s">
         <v>167</v>
       </c>
@@ -4441,7 +4458,7 @@
       <c r="G12" s="20"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -4450,7 +4467,7 @@
       <c r="G13" s="20"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -4459,7 +4476,7 @@
       <c r="G14" s="20"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -4468,7 +4485,7 @@
       <c r="G15" s="20"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -4477,7 +4494,7 @@
       <c r="G16" s="20"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8">
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -4486,7 +4503,7 @@
       <c r="G17" s="20"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8">
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -4495,7 +4512,7 @@
       <c r="G18" s="20"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8">
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -4504,7 +4521,7 @@
       <c r="G19" s="20"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8">
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -4513,7 +4530,7 @@
       <c r="G20" s="20"/>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8">
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -4522,7 +4539,7 @@
       <c r="G21" s="20"/>
       <c r="H21" s="19"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8">
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -4531,7 +4548,7 @@
       <c r="G22" s="20"/>
       <c r="H22" s="19"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8">
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -4540,7 +4557,7 @@
       <c r="G23" s="20"/>
       <c r="H23" s="19"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8">
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -4549,7 +4566,7 @@
       <c r="G24" s="20"/>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8">
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -4558,7 +4575,7 @@
       <c r="G25" s="20"/>
       <c r="H25" s="19"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8">
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -4567,7 +4584,7 @@
       <c r="G26" s="20"/>
       <c r="H26" s="19"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8">
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -4576,7 +4593,7 @@
       <c r="G27" s="20"/>
       <c r="H27" s="19"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8">
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -4585,7 +4602,7 @@
       <c r="G28" s="20"/>
       <c r="H28" s="19"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8">
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -4594,7 +4611,7 @@
       <c r="G29" s="20"/>
       <c r="H29" s="19"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8">
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -4603,7 +4620,7 @@
       <c r="G30" s="20"/>
       <c r="H30" s="19"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8">
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -4612,7 +4629,7 @@
       <c r="G31" s="20"/>
       <c r="H31" s="19"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8">
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -4621,7 +4638,7 @@
       <c r="G32" s="20"/>
       <c r="H32" s="19"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8">
       <c r="B33" s="18"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -4630,7 +4647,7 @@
       <c r="G33" s="20"/>
       <c r="H33" s="19"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8">
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
@@ -4639,7 +4656,7 @@
       <c r="G34" s="20"/>
       <c r="H34" s="19"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8">
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -4648,7 +4665,7 @@
       <c r="G35" s="20"/>
       <c r="H35" s="19"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8">
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
@@ -4657,7 +4674,7 @@
       <c r="G36" s="20"/>
       <c r="H36" s="19"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8">
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
@@ -4666,7 +4683,7 @@
       <c r="G37" s="20"/>
       <c r="H37" s="19"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8">
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
@@ -4675,7 +4692,7 @@
       <c r="G38" s="20"/>
       <c r="H38" s="19"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8">
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
@@ -4684,7 +4701,7 @@
       <c r="G39" s="20"/>
       <c r="H39" s="19"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8">
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -4693,7 +4710,7 @@
       <c r="G40" s="20"/>
       <c r="H40" s="19"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8">
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -4702,7 +4719,7 @@
       <c r="G41" s="20"/>
       <c r="H41" s="19"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8">
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -4711,7 +4728,7 @@
       <c r="G42" s="20"/>
       <c r="H42" s="19"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8">
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
@@ -4720,7 +4737,7 @@
       <c r="G43" s="20"/>
       <c r="H43" s="19"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8">
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
@@ -4729,7 +4746,7 @@
       <c r="G44" s="20"/>
       <c r="H44" s="19"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8">
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -4738,7 +4755,7 @@
       <c r="G45" s="20"/>
       <c r="H45" s="19"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8">
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
@@ -4747,7 +4764,7 @@
       <c r="G46" s="20"/>
       <c r="H46" s="19"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8">
       <c r="B47" s="18"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
@@ -4756,7 +4773,7 @@
       <c r="G47" s="20"/>
       <c r="H47" s="19"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8">
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
@@ -4765,7 +4782,7 @@
       <c r="G48" s="20"/>
       <c r="H48" s="19"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8">
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
@@ -4774,7 +4791,7 @@
       <c r="G49" s="20"/>
       <c r="H49" s="19"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8">
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
@@ -4796,7 +4813,7 @@
       <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -4811,7 +4828,7 @@
     <col min="13" max="13" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="16" t="s">
         <v>171</v>
       </c>
@@ -4852,7 +4869,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -4879,7 +4896,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -4906,7 +4923,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="5" t="s">
         <v>28</v>
       </c>
@@ -4933,7 +4950,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
@@ -4960,7 +4977,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -4987,7 +5004,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -5016,7 +5033,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -5039,7 +5056,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -5066,7 +5083,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -5089,7 +5106,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="38.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>176</v>
@@ -5118,7 +5135,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>176</v>
@@ -5145,7 +5162,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>176</v>
@@ -5176,7 +5193,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>176</v>
@@ -5211,7 +5228,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>176</v>
@@ -5246,7 +5263,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>177</v>
@@ -5277,7 +5294,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
         <v>177</v>
@@ -5308,7 +5325,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="D19" s="26" t="s">
         <v>164</v>
       </c>
@@ -5316,7 +5333,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="D21" s="26" t="s">
         <v>166</v>
       </c>
@@ -5324,7 +5341,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="D22" s="26" t="s">
         <v>167</v>
       </c>
@@ -5342,11 +5359,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="16" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -5356,12 +5373,12 @@
     <col min="7" max="7" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="26" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="29" t="s">
         <v>204</v>
       </c>
@@ -5381,7 +5398,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="31"/>
       <c r="B3" s="5" t="s">
         <v>208</v>
@@ -5397,7 +5414,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="27" t="s">
         <v>205</v>
       </c>
@@ -5417,7 +5434,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="27" t="s">
         <v>205</v>
       </c>
@@ -5437,12 +5454,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="26" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="29" t="s">
         <v>204</v>
       </c>
@@ -5462,7 +5479,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="31"/>
       <c r="B10" s="5" t="s">
         <v>208</v>
@@ -5478,7 +5495,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
         <v>208</v>
@@ -5494,7 +5511,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="27" t="s">
         <v>205</v>
       </c>
@@ -5514,12 +5531,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="26" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="29" t="s">
         <v>204</v>
       </c>
@@ -5539,7 +5556,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="31"/>
       <c r="B17" s="5" t="s">
         <v>208</v>
@@ -5555,7 +5572,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="27" t="s">
         <v>205</v>
       </c>
@@ -5575,7 +5592,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="31"/>
       <c r="B19" s="5" t="s">
         <v>208</v>
@@ -5591,12 +5608,12 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="29" t="s">
         <v>204</v>
       </c>
@@ -5616,7 +5633,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="31"/>
       <c r="B24" s="5" t="s">
         <v>208</v>
@@ -5632,7 +5649,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="27" t="s">
         <v>205</v>
       </c>
@@ -5652,7 +5669,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="31"/>
       <c r="B26" s="5" t="s">
         <v>208</v>
@@ -5668,7 +5685,7 @@
       </c>
       <c r="F26" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="29" t="s">
         <v>204</v>
       </c>
@@ -5691,7 +5708,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="31"/>
       <c r="B29" s="5" t="s">
         <v>208</v>
@@ -5710,7 +5727,7 @@
       </c>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="27" t="s">
         <v>205</v>
       </c>
@@ -5733,7 +5750,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="31"/>
       <c r="B31" s="5" t="s">
         <v>208</v>
@@ -5752,7 +5769,7 @@
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="26" t="s">
         <v>231</v>
       </c>
@@ -5760,7 +5777,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="26" t="s">
         <v>232</v>
       </c>
@@ -5778,10 +5795,10 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
@@ -5789,7 +5806,7 @@
     <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="16" t="s">
         <v>267</v>
       </c>
@@ -5803,7 +5820,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -5814,7 +5831,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -5825,7 +5842,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -5836,7 +5853,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>276</v>
       </c>
@@ -5847,7 +5864,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -5861,7 +5878,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -5875,7 +5892,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>346</v>
       </c>
@@ -5886,7 +5903,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>292</v>
       </c>
@@ -5897,7 +5914,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>292</v>
       </c>

--- a/resource/SPEC/02 SPEC Validate Inspection Plan V2.0.xlsx
+++ b/resource/SPEC/02 SPEC Validate Inspection Plan V2.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10185" yWindow="-15" windowWidth="10080" windowHeight="8100" activeTab="1"/>
+    <workbookView xWindow="10185" yWindow="-15" windowWidth="10080" windowHeight="8100" tabRatio="658" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="01 - Header" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="353">
   <si>
     <t xml:space="preserve"> Group</t>
   </si>
@@ -592,9 +592,6 @@
   </si>
   <si>
     <t>QL not null</t>
-  </si>
-  <si>
-    <t>QL must null</t>
   </si>
   <si>
     <t>if SPC_CRITERION_KEY has value, not null</t>
@@ -763,9 +760,6 @@
   </si>
   <si>
     <t>CHAR(NUM only)</t>
-  </si>
-  <si>
-    <t>QL/QN</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -1164,9 +1158,6 @@
 Qualitative: QUANTITATIVE_IND must be blank</t>
   </si>
   <si>
-    <t>Qualitative: RESULT_RECORDING must be blank</t>
-  </si>
-  <si>
     <t>Incorrect sampling procedure</t>
   </si>
   <si>
@@ -1309,6 +1300,27 @@
   <si>
     <t>Qualitative: ATTRIBUTE_REQUIR must be "X"
 Quantitative: ATTRIBUTE_REQUIR must be blank</t>
+  </si>
+  <si>
+    <t>Duplicate usage within Group</t>
+  </si>
+  <si>
+    <t>Group not mapping with 01-Header</t>
+  </si>
+  <si>
+    <t>Additional Condition 3</t>
+  </si>
+  <si>
+    <t>concat(PLNNR,PLNAL,MEINS) must same</t>
+  </si>
+  <si>
+    <t>Material has different Units</t>
+  </si>
+  <si>
+    <t>Group does not exist in 03 - MIC</t>
+  </si>
+  <si>
+    <t>Group does not exist in 02 - Operation</t>
   </si>
 </sst>
 </file>
@@ -1480,7 +1492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1628,6 +1640,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1936,7 +1954,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1976,7 +1994,7 @@
         <v>161</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2028,7 +2046,7 @@
     <row r="4" spans="1:9">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
@@ -2051,7 +2069,7 @@
     <row r="5" spans="1:9">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>6</v>
@@ -2097,7 +2115,7 @@
     <row r="7" spans="1:9">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>8</v>
@@ -2120,7 +2138,7 @@
     <row r="8" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>9</v>
@@ -2143,7 +2161,7 @@
     <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>10</v>
@@ -2166,7 +2184,7 @@
     <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>11</v>
@@ -2182,10 +2200,10 @@
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2212,7 +2230,7 @@
     <row r="12" spans="1:9">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>13</v>
@@ -2233,7 +2251,7 @@
     <row r="13" spans="1:9">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
@@ -2252,7 +2270,7 @@
     <row r="14" spans="1:9">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>15</v>
@@ -2276,7 +2294,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:9">
       <c r="B18" s="26" t="s">
         <v>166</v>
       </c>
@@ -2284,12 +2302,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:9">
       <c r="B19" s="26" t="s">
         <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>242</v>
+        <v>240</v>
+      </c>
+      <c r="I19" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -2302,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2343,7 +2364,7 @@
         <v>161</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2395,7 +2416,7 @@
     <row r="4" spans="1:9">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
@@ -2416,7 +2437,7 @@
         <v>172</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2456,7 +2477,7 @@
         <v>143</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>25</v>
@@ -2467,7 +2488,7 @@
     <row r="7" spans="1:9">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>39</v>
@@ -2490,7 +2511,7 @@
     <row r="8" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>40</v>
@@ -2513,7 +2534,7 @@
     <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>41</v>
@@ -2534,7 +2555,7 @@
     <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>42</v>
@@ -2573,10 +2594,10 @@
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2608,6 +2629,9 @@
       </c>
       <c r="C16" t="s">
         <v>168</v>
+      </c>
+      <c r="I16" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -2621,7 +2645,7 @@
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2652,7 +2676,7 @@
         <v>184</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
@@ -2676,19 +2700,19 @@
         <v>161</v>
       </c>
       <c r="K1" s="51" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>162</v>
       </c>
       <c r="M1" s="51" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O1" s="51" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2765,7 +2789,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>25</v>
@@ -2794,7 +2818,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>25</v>
@@ -2813,7 +2837,7 @@
         <v>176</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>46</v>
@@ -2958,7 +2982,7 @@
         <v>177</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>48</v>
@@ -2991,7 +3015,7 @@
         <v>176</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>49</v>
@@ -3020,12 +3044,8 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="36"/>
-      <c r="B13" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>301</v>
-      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="37" t="s">
         <v>50</v>
       </c>
@@ -3042,9 +3062,7 @@
       <c r="I13" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="J13" s="36" t="s">
-        <v>188</v>
-      </c>
+      <c r="J13" s="36"/>
       <c r="K13" s="55"/>
       <c r="L13" s="36"/>
       <c r="M13" s="53"/>
@@ -3165,7 +3183,7 @@
         <v>176</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>55</v>
@@ -3184,10 +3202,10 @@
         <v>157</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K18" s="54" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L18" s="36"/>
       <c r="M18" s="53"/>
@@ -3200,7 +3218,7 @@
         <v>176</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D19" s="37" t="s">
         <v>56</v>
@@ -3219,10 +3237,10 @@
         <v>159</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K19" s="54" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L19" s="36"/>
       <c r="M19" s="53"/>
@@ -3279,10 +3297,10 @@
       </c>
       <c r="I21" s="32"/>
       <c r="J21" s="37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K21" s="53" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M21" s="55"/>
       <c r="N21" s="36"/>
@@ -3309,7 +3327,7 @@
       </c>
       <c r="I22" s="22"/>
       <c r="J22" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K22" s="53"/>
       <c r="M22" s="55"/>
@@ -3351,7 +3369,7 @@
         <v>176</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D24" s="37" t="s">
         <v>58</v>
@@ -3370,7 +3388,7 @@
         <v>34</v>
       </c>
       <c r="K24" s="54" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L24" s="37"/>
       <c r="M24" s="54"/>
@@ -3383,7 +3401,7 @@
         <v>176</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D25" s="37" t="s">
         <v>59</v>
@@ -3402,10 +3420,10 @@
         <v>157</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K25" s="53" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L25" s="36"/>
       <c r="M25" s="53"/>
@@ -3418,7 +3436,7 @@
         <v>176</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D26" s="37" t="s">
         <v>60</v>
@@ -3437,10 +3455,10 @@
         <v>157</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K26" s="53" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L26" s="36"/>
       <c r="M26" s="53"/>
@@ -3453,7 +3471,7 @@
         <v>176</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D27" s="37" t="s">
         <v>61</v>
@@ -3472,10 +3490,10 @@
         <v>157</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K27" s="53" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L27" s="36"/>
       <c r="M27" s="53"/>
@@ -3488,7 +3506,7 @@
         <v>176</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D28" s="37" t="s">
         <v>62</v>
@@ -3505,7 +3523,7 @@
       </c>
       <c r="I28" s="22"/>
       <c r="J28" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K28" s="56"/>
       <c r="L28" s="36"/>
@@ -3519,7 +3537,7 @@
         <v>176</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D29" s="37" t="s">
         <v>63</v>
@@ -3536,22 +3554,22 @@
       </c>
       <c r="I29" s="22"/>
       <c r="J29" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K29" s="53" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L29" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M29" s="53" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="N29" s="36" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O29" s="53" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -3560,7 +3578,7 @@
         <v>176</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D30" s="37" t="s">
         <v>153</v>
@@ -3577,22 +3595,22 @@
       </c>
       <c r="I30" s="22"/>
       <c r="J30" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K30" s="53" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L30" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M30" s="53" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="N30" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O30" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -3601,7 +3619,7 @@
         <v>176</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D31" s="37" t="s">
         <v>154</v>
@@ -3618,22 +3636,22 @@
       </c>
       <c r="I31" s="22"/>
       <c r="J31" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="K31" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="L31" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="K31" s="53" t="s">
-        <v>307</v>
-      </c>
-      <c r="L31" s="36" t="s">
-        <v>197</v>
-      </c>
       <c r="M31" s="53" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N31" s="36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O31" s="53" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="25.5">
@@ -3642,7 +3660,7 @@
         <v>177</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D32" s="37" t="s">
         <v>64</v>
@@ -3675,7 +3693,7 @@
         <v>177</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D33" s="37" t="s">
         <v>65</v>
@@ -3720,7 +3738,7 @@
         <v>22</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J34" s="36"/>
       <c r="K34" s="53"/>
@@ -3747,7 +3765,7 @@
         <v>25</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J35" s="36"/>
       <c r="K35" s="53"/>
@@ -3933,10 +3951,10 @@
         <v>160</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K42" s="54" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L42" s="36"/>
       <c r="M42" s="53"/>
@@ -4084,7 +4102,7 @@
         <v>176</v>
       </c>
       <c r="C48" s="53" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D48" s="37" t="s">
         <v>78</v>
@@ -4103,10 +4121,10 @@
         <v>157</v>
       </c>
       <c r="J48" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="K48" s="53" t="s">
         <v>325</v>
-      </c>
-      <c r="K48" s="53" t="s">
-        <v>328</v>
       </c>
       <c r="L48" s="36"/>
       <c r="M48" s="53"/>
@@ -4119,7 +4137,7 @@
         <v>176</v>
       </c>
       <c r="C49" s="53" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>130</v>
@@ -4136,10 +4154,10 @@
       </c>
       <c r="I49" s="22"/>
       <c r="J49" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="K49" s="53" t="s">
         <v>326</v>
-      </c>
-      <c r="K49" s="53" t="s">
-        <v>329</v>
       </c>
       <c r="L49" s="36"/>
       <c r="M49" s="53"/>
@@ -4152,7 +4170,7 @@
         <v>176</v>
       </c>
       <c r="C50" s="53" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D50" s="37" t="s">
         <v>132</v>
@@ -4169,10 +4187,10 @@
       </c>
       <c r="I50" s="22"/>
       <c r="J50" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="K50" s="53" t="s">
         <v>327</v>
-      </c>
-      <c r="K50" s="53" t="s">
-        <v>330</v>
       </c>
       <c r="L50" s="36"/>
       <c r="M50" s="53"/>
@@ -4187,7 +4205,7 @@
         <v>165</v>
       </c>
       <c r="J52" s="38" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -4200,10 +4218,10 @@
     </row>
     <row r="54" spans="1:15">
       <c r="C54" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -4224,6 +4242,9 @@
       </c>
       <c r="D57" s="38" t="s">
         <v>185</v>
+      </c>
+      <c r="J57" s="62" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -4238,7 +4259,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4388,10 +4409,10 @@
     <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>18</v>
@@ -4456,16 +4477,24 @@
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="19"/>
+      <c r="H12" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>349</v>
+      </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="19"/>
+      <c r="H13" s="19" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="18"/>
@@ -4809,8 +4838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4836,7 +4865,7 @@
         <v>184</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>16</v>
@@ -4860,13 +4889,13 @@
         <v>161</v>
       </c>
       <c r="K1" s="51" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L1" s="16" t="s">
         <v>162</v>
       </c>
       <c r="M1" s="51" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4875,8 +4904,8 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>243</v>
+      <c r="D2" s="60" t="s">
+        <v>241</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>3</v>
@@ -4902,7 +4931,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="60" t="s">
         <v>137</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -4929,8 +4958,8 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>244</v>
+      <c r="D4" s="60" t="s">
+        <v>242</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>38</v>
@@ -4939,7 +4968,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>25</v>
@@ -4956,8 +4985,8 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>245</v>
+      <c r="D5" s="60" t="s">
+        <v>243</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>79</v>
@@ -4966,7 +4995,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H5" s="34" t="s">
         <v>25</v>
@@ -4983,11 +5012,11 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>246</v>
+      <c r="D6" s="60" t="s">
+        <v>244</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>18</v>
@@ -5009,7 +5038,7 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>135</v>
@@ -5025,10 +5054,10 @@
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K7" s="57" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -5038,10 +5067,10 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
@@ -5061,7 +5090,7 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>134</v>
@@ -5088,10 +5117,10 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
@@ -5112,10 +5141,10 @@
         <v>176</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>102</v>
@@ -5129,7 +5158,7 @@
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K11" s="58"/>
       <c r="L11" s="5"/>
@@ -5141,10 +5170,10 @@
         <v>176</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>98</v>
@@ -5168,10 +5197,10 @@
         <v>176</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>103</v>
@@ -5187,10 +5216,10 @@
       <c r="J13" s="5"/>
       <c r="K13" s="53"/>
       <c r="L13" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M13" s="53" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -5199,10 +5228,10 @@
         <v>176</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>104</v>
@@ -5216,16 +5245,16 @@
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K14" s="53" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M14" s="53" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -5234,10 +5263,10 @@
         <v>176</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>105</v>
@@ -5251,16 +5280,16 @@
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K15" s="53" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M15" s="53" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -5269,7 +5298,7 @@
         <v>177</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>64</v>
@@ -5300,10 +5329,10 @@
         <v>177</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>107</v>
@@ -5330,7 +5359,7 @@
         <v>164</v>
       </c>
       <c r="E19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -5338,7 +5367,7 @@
         <v>166</v>
       </c>
       <c r="E21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -5346,7 +5375,10 @@
         <v>167</v>
       </c>
       <c r="E22" t="s">
-        <v>261</v>
+        <v>259</v>
+      </c>
+      <c r="K22" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -5359,8 +5391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5375,12 +5407,12 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>0</v>
@@ -5389,79 +5421,79 @@
         <v>1</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="31"/>
       <c r="B3" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="5">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>0</v>
@@ -5473,72 +5505,72 @@
         <v>36</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="31"/>
       <c r="B10" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C12" s="5">
         <v>2</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="29" t="s">
         <v>136</v>
@@ -5553,69 +5585,69 @@
         <v>146</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="31"/>
       <c r="B17" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="31"/>
       <c r="B19" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19" s="5">
         <v>2</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F19" s="5"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B23" s="29" t="s">
         <v>136</v>
@@ -5630,159 +5662,159 @@
         <v>139</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="31"/>
       <c r="B24" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E25" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="31"/>
       <c r="B26" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C26" s="5">
         <v>2</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F26" s="5"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>137</v>
       </c>
       <c r="D28" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="F28" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="E28" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>246</v>
-      </c>
       <c r="G28" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="31"/>
       <c r="B29" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C29" s="5">
         <v>1</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="31"/>
       <c r="B31" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31" s="5">
         <v>2</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G31" s="5"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B34" t="s">
         <v>232</v>
-      </c>
-      <c r="B34" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5795,7 +5827,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5808,13 +5840,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>267</v>
-      </c>
-      <c r="B1" s="59" t="s">
-        <v>268</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>269</v>
       </c>
       <c r="D1" s="47" t="s">
         <v>164</v>
@@ -5825,10 +5857,10 @@
         <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5836,10 +5868,10 @@
         <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5847,21 +5879,21 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5869,13 +5901,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5883,49 +5915,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="48" t="s">
-        <v>291</v>
-      </c>
       <c r="D7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" t="s">
         <v>292</v>
       </c>
-      <c r="B10" t="s">
-        <v>294</v>
-      </c>
       <c r="C10" s="48" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
